--- a/biology/Zoologie/Cisco_(poisson)/Cisco_(poisson).xlsx
+++ b/biology/Zoologie/Cisco_(poisson)/Cisco_(poisson).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,19 +490,21 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Corégone cisco
 Les appellations « cisco » et « corégone cisco » sont des noms vernaculaires ambigus en français, pouvant désigner plusieurs espèces différentes de poissons salmoniformes, à savoir des corégones :
-Coregonus alpenae (en), aussi appelé Cisco à grande bouche[1] :
-Coregonus artedi, aussi appelé Cisco de lac ou Corégone cisco[2],[3] ;
-Coregonus autumnalis, aussi appelé Cisco arctique ou Corégone cisco[4],[5] ;
-Coregonus clupeaformis, aussi appelé Grand corégone, Corégone de lac ou Corégone cisco[6],[7] ;
-Coregonus huntsmani (en), aussi appelé Cisco[8] ;
-Coregonus laurettae (en), aussi appelé Cisco de Béring[9] ;
-Coregonus reighardil (en), aussi appelé Cisco à museau court[10] ;
-Coregonus sardinella (en), aussi appelé Cisco sardinelle[11] ;
-Coregonus zenithicus (en), aussi appelé Cisco à mâchoires égales[12].
+Coregonus alpenae (en), aussi appelé Cisco à grande bouche :
+Coregonus artedi, aussi appelé Cisco de lac ou Corégone cisco, ;
+Coregonus autumnalis, aussi appelé Cisco arctique ou Corégone cisco, ;
+Coregonus clupeaformis, aussi appelé Grand corégone, Corégone de lac ou Corégone cisco, ;
+Coregonus huntsmani (en), aussi appelé Cisco ;
+Coregonus laurettae (en), aussi appelé Cisco de Béring ;
+Coregonus reighardil (en), aussi appelé Cisco à museau court ;
+Coregonus sardinella (en), aussi appelé Cisco sardinelle ;
+Coregonus zenithicus (en), aussi appelé Cisco à mâchoires égales.
 			Coregonus artedi.
 			Coregonus clupeaformis.
 			Coregonus huntsmani.
